--- a/test_results/image_alt_summary.xlsx
+++ b/test_results/image_alt_summary.xlsx
@@ -457,22 +457,22 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>page_url</t>
+          <t>Page URL</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>testcase</t>
+          <t>Test Case</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>comments</t>
+          <t>Comments</t>
         </is>
       </c>
     </row>
